--- a/Doc/2.UI/銀行ダウンロード/機能要望（銀行ダウンロード）.xlsx
+++ b/Doc/2.UI/銀行ダウンロード/機能要望（銀行ダウンロード）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -105,100 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>銀行旧新情報で表示された情報以外の情報（預金種別や口座番号）
-を伝票経理システムで見ている。</t>
-    <rPh sb="0" eb="2">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨキン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュベツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>デンピョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケイリ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>印刷ボタンを設けたい。</t>
-    <rPh sb="0" eb="2">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>依頼書提出の有無（2→有、1→提出中、Null→無）・預金種別・口座番号の表示、印刷させたい。</t>
-    <rPh sb="11" eb="12">
-      <t>アリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナシ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヨキン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シュベツ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>インサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>依頼書提出の有無だけでも表示・印刷できると助かります。</t>
     <rPh sb="0" eb="5">
       <t>イライショテイシュツ</t>
@@ -214,6 +120,158 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>タス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクセル出力したい。</t>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行旧新情報で表示された情報以外の情報（預金種別や口座番号）を伝票経理システムで見ている。</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>デンピョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケイリ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引先マスターの項目「依頼有無」（2→有、1→提出中、Null→無）と銀行マスターの項目「預金種別」・「口座番号」の表示、エクセル出力させたい。</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキサキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在、銀行旧新情報は「銀行名」で比較して、ダウンロードbankにない「銀行名」を表示している。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ギンコウメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ギンコウメイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行マスターの「銀行コード」（7桁）とダウンロードbankの「銀行コード」「支店コード」の組み合わせ（7桁）で比較させたい。</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -792,24 +850,28 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
     </row>
